--- a/JG14S15P08/trunk/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/JG14S15P08/trunk/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26018"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdminRobert/Documents/GitHub/ConconiTest/JG14S15P08/trunk/Documentation/ProjectDocumentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Titel</t>
   </si>
@@ -78,9 +88,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,24 +103,12 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -132,24 +127,38 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
-Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Conconii</t>
+  </si>
+  <si>
+    <t>Robert Gstöttner, Christopher Ebner</t>
+  </si>
+  <si>
+    <t>Sommersemester 2015</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Conconi-Test ist eine kostengünstige Alternative zum Lactat-Test, welcher normalerweise beim Sportmediziner durchgeführt wird. Dabei muss der Sportler auf einem Laufband gewisse Geschwindigkeitsvorgaben einhalten, die sich immer weiter erhöhen. In regelmäßigen Abständen wird etwas Blut abgenommen und auf Lactatgehalt getestet. Diese Messungen werden im Anschluss in ein Diagramm eingetragen. Nachdem der Läufer eine Gewisse Grenze erreicht hat, kann der Sportmediziner seine Anaerobe Schwelle bestimmen.
+Das Ziel der Conconii-App ist es diesen Test ohne Blutabnahme und Sportmediziner durchzuführen. Der Test läuft in etwa gleich ab, nur mit dem Unterschied, dass man nicht auf dem Laufband läuft sondern in freier Natur. Statt der Blutabnahme wird die Herzfrequenz gemessen. Der Test läuft so lange, bis aus den konstanten Messwerten die man per GPS und Bluetooth (Brustgurt) erhält eine Abweichung erkennbar wird.
+In einem Diagramm wird letztendlich eine Gerade aus den Messdaten erzeugt. Diese Gerade wird mit steigendem Puls zur Kurve. Ab diesem Punkt verlässt man beim Laufen den anaeroben Bereich.
+</t>
+  </si>
+  <si>
+    <t>Alexander Lenz</t>
+  </si>
+  <si>
+    <t>Conconii ist eine App, die durch eine Analyse des Laufverhaltens die anaerobe Schwelle des jeweiligen Läufers bestimmt. Diese Analyse wird durch GPS-Tracking und Herzfrequenzmessung realisiert.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,29 +204,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -225,23 +234,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,9 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -295,6 +301,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,6 +312,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +395,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +430,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,38 +606,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,231 +699,228 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:20">
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +943,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
